--- a/SchedulingData/static8/pso/scheduling1_20.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_20.xlsx
@@ -462,382 +462,382 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.90000000000001</v>
+        <v>78.08</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2</v>
+        <v>25.352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.38</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>25.632</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>72.09999999999999</v>
+        <v>111.36</v>
       </c>
       <c r="E4" t="n">
-        <v>26.44</v>
+        <v>22.164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.09999999999999</v>
+        <v>111.36</v>
       </c>
       <c r="D5" t="n">
-        <v>136.7</v>
+        <v>178.46</v>
       </c>
       <c r="E5" t="n">
-        <v>22.6</v>
+        <v>18.564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>78.08</v>
       </c>
       <c r="D6" t="n">
-        <v>70.40000000000001</v>
+        <v>132.24</v>
       </c>
       <c r="E6" t="n">
-        <v>24.66</v>
+        <v>21.556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>31.64</v>
+        <v>61.52</v>
       </c>
       <c r="E7" t="n">
-        <v>27.536</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>65.38</v>
       </c>
-      <c r="D8" t="n">
-        <v>113.78</v>
-      </c>
       <c r="E8" t="n">
-        <v>22.912</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113.78</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>164.38</v>
+        <v>46.22</v>
       </c>
       <c r="E9" t="n">
-        <v>18.992</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136.7</v>
+        <v>178.46</v>
       </c>
       <c r="D10" t="n">
-        <v>193.58</v>
+        <v>218.8</v>
       </c>
       <c r="E10" t="n">
-        <v>18.552</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>132.24</v>
       </c>
       <c r="D11" t="n">
-        <v>70.76000000000001</v>
+        <v>203.24</v>
       </c>
       <c r="E11" t="n">
-        <v>26.084</v>
+        <v>16.576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>70.76000000000001</v>
+        <v>46.22</v>
       </c>
       <c r="D12" t="n">
-        <v>121.52</v>
+        <v>89.14</v>
       </c>
       <c r="E12" t="n">
-        <v>22.148</v>
+        <v>22.916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.40000000000001</v>
+        <v>203.24</v>
       </c>
       <c r="D13" t="n">
-        <v>140.72</v>
+        <v>248.86</v>
       </c>
       <c r="E13" t="n">
-        <v>21.228</v>
+        <v>13.144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.52</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>192.92</v>
+        <v>59.9</v>
       </c>
       <c r="E14" t="n">
-        <v>16.628</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164.38</v>
+        <v>65.38</v>
       </c>
       <c r="D15" t="n">
-        <v>227.3</v>
+        <v>152.18</v>
       </c>
       <c r="E15" t="n">
-        <v>15.34</v>
+        <v>21.552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>227.3</v>
+        <v>59.9</v>
       </c>
       <c r="D16" t="n">
-        <v>270.54</v>
+        <v>117.08</v>
       </c>
       <c r="E16" t="n">
-        <v>12.636</v>
+        <v>22.612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>192.92</v>
+        <v>89.14</v>
       </c>
       <c r="D17" t="n">
-        <v>266.92</v>
+        <v>184.74</v>
       </c>
       <c r="E17" t="n">
-        <v>12.848</v>
+        <v>19.436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31.64</v>
+        <v>61.52</v>
       </c>
       <c r="D18" t="n">
-        <v>108.64</v>
+        <v>153.12</v>
       </c>
       <c r="E18" t="n">
-        <v>23.456</v>
+        <v>21.968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>64.90000000000001</v>
+        <v>153.12</v>
       </c>
       <c r="D19" t="n">
-        <v>139.1</v>
+        <v>208.48</v>
       </c>
       <c r="E19" t="n">
-        <v>23.36</v>
+        <v>18.052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>140.72</v>
+        <v>248.86</v>
       </c>
       <c r="D20" t="n">
-        <v>222.9</v>
+        <v>301.66</v>
       </c>
       <c r="E20" t="n">
-        <v>17.14</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>193.58</v>
+        <v>218.8</v>
       </c>
       <c r="D21" t="n">
-        <v>257.8</v>
+        <v>316.7</v>
       </c>
       <c r="E21" t="n">
-        <v>15.24</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="22">
@@ -846,131 +846,131 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>257.8</v>
+        <v>301.66</v>
       </c>
       <c r="D22" t="n">
-        <v>328.46</v>
+        <v>358.16</v>
       </c>
       <c r="E22" t="n">
-        <v>11.304</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>266.92</v>
+        <v>358.16</v>
       </c>
       <c r="D23" t="n">
-        <v>324.42</v>
+        <v>421.82</v>
       </c>
       <c r="E23" t="n">
-        <v>9.208</v>
+        <v>2.708</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>328.46</v>
+        <v>152.18</v>
       </c>
       <c r="D24" t="n">
-        <v>377.72</v>
+        <v>208.98</v>
       </c>
       <c r="E24" t="n">
-        <v>7.508</v>
+        <v>17.992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>108.64</v>
+        <v>316.7</v>
       </c>
       <c r="D25" t="n">
-        <v>164.26</v>
+        <v>360.3</v>
       </c>
       <c r="E25" t="n">
-        <v>20.024</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>324.42</v>
+        <v>184.74</v>
       </c>
       <c r="D26" t="n">
-        <v>377.72</v>
+        <v>256.44</v>
       </c>
       <c r="E26" t="n">
-        <v>5.008</v>
+        <v>15.356</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>164.26</v>
+        <v>208.48</v>
       </c>
       <c r="D27" t="n">
-        <v>214.78</v>
+        <v>258.42</v>
       </c>
       <c r="E27" t="n">
-        <v>16.592</v>
+        <v>14.188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>214.78</v>
+        <v>258.42</v>
       </c>
       <c r="D28" t="n">
-        <v>256.78</v>
+        <v>307.72</v>
       </c>
       <c r="E28" t="n">
-        <v>14.032</v>
+        <v>10.888</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>377.72</v>
+        <v>360.3</v>
       </c>
       <c r="D29" t="n">
-        <v>451.66</v>
+        <v>426.5</v>
       </c>
       <c r="E29" t="n">
-        <v>1.224</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>451.66</v>
+        <v>426.5</v>
       </c>
       <c r="D30" t="n">
-        <v>540.71</v>
+        <v>478.04</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>1.696</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>139.1</v>
+        <v>478.04</v>
       </c>
       <c r="D31" t="n">
-        <v>204.5</v>
+        <v>581.05</v>
       </c>
       <c r="E31" t="n">
-        <v>18.94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>256.78</v>
+        <v>307.72</v>
       </c>
       <c r="D32" t="n">
-        <v>318.52</v>
+        <v>368.22</v>
       </c>
       <c r="E32" t="n">
-        <v>8.988</v>
+        <v>6.468</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>318.52</v>
+        <v>117.08</v>
       </c>
       <c r="D33" t="n">
-        <v>384.52</v>
+        <v>193.6</v>
       </c>
       <c r="E33" t="n">
-        <v>4.008</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>222.9</v>
+        <v>193.6</v>
       </c>
       <c r="D34" t="n">
-        <v>281.68</v>
+        <v>244.44</v>
       </c>
       <c r="E34" t="n">
-        <v>13.892</v>
+        <v>16.096</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>281.68</v>
+        <v>244.44</v>
       </c>
       <c r="D35" t="n">
-        <v>358.78</v>
+        <v>326.04</v>
       </c>
       <c r="E35" t="n">
-        <v>8.292</v>
+        <v>10.576</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>270.54</v>
+        <v>421.82</v>
       </c>
       <c r="D36" t="n">
-        <v>333.32</v>
+        <v>517.7</v>
       </c>
       <c r="E36" t="n">
-        <v>7.988</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1131,93 +1131,93 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>377.72</v>
+        <v>517.7</v>
       </c>
       <c r="D37" t="n">
-        <v>429.44</v>
+        <v>572.5</v>
       </c>
       <c r="E37" t="n">
-        <v>3.956</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>429.44</v>
+        <v>581.05</v>
       </c>
       <c r="D38" t="n">
-        <v>506.32</v>
+        <v>616.13</v>
       </c>
       <c r="E38" t="n">
-        <v>0.368</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>506.32</v>
+        <v>208.98</v>
       </c>
       <c r="D39" t="n">
-        <v>577.58</v>
+        <v>293.28</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>12.652</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>540.71</v>
+        <v>293.28</v>
       </c>
       <c r="D40" t="n">
-        <v>604.61</v>
+        <v>362.4</v>
       </c>
       <c r="E40" t="n">
-        <v>25.8</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>577.58</v>
+        <v>256.44</v>
       </c>
       <c r="D41" t="n">
-        <v>651.64</v>
+        <v>326.54</v>
       </c>
       <c r="E41" t="n">
-        <v>26.724</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="42">
@@ -1226,55 +1226,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>204.5</v>
+        <v>362.4</v>
       </c>
       <c r="D42" t="n">
-        <v>254.72</v>
+        <v>421.9</v>
       </c>
       <c r="E42" t="n">
-        <v>16.028</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>384.52</v>
+        <v>326.04</v>
       </c>
       <c r="D43" t="n">
-        <v>429.28</v>
+        <v>393.34</v>
       </c>
       <c r="E43" t="n">
-        <v>1.152</v>
+        <v>4.976</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>429.28</v>
+        <v>393.34</v>
       </c>
       <c r="D44" t="n">
-        <v>523.38</v>
+        <v>447.38</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="45">
@@ -1283,169 +1283,169 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>358.78</v>
+        <v>447.38</v>
       </c>
       <c r="D45" t="n">
-        <v>418.62</v>
+        <v>536.5</v>
       </c>
       <c r="E45" t="n">
-        <v>4.428</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>254.72</v>
+        <v>326.54</v>
       </c>
       <c r="D46" t="n">
-        <v>318.72</v>
+        <v>359.98</v>
       </c>
       <c r="E46" t="n">
-        <v>12.728</v>
+        <v>8.272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>604.61</v>
+        <v>536.5</v>
       </c>
       <c r="D47" t="n">
-        <v>659.91</v>
+        <v>617.36</v>
       </c>
       <c r="E47" t="n">
-        <v>21.9</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>318.72</v>
+        <v>617.36</v>
       </c>
       <c r="D48" t="n">
-        <v>371.02</v>
+        <v>689.64</v>
       </c>
       <c r="E48" t="n">
-        <v>9.128</v>
+        <v>21.976</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>523.38</v>
+        <v>616.13</v>
       </c>
       <c r="D49" t="n">
-        <v>592.76</v>
+        <v>691.45</v>
       </c>
       <c r="E49" t="n">
-        <v>27.192</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>592.76</v>
+        <v>689.64</v>
       </c>
       <c r="D50" t="n">
-        <v>648.1</v>
+        <v>783.72</v>
       </c>
       <c r="E50" t="n">
-        <v>24.288</v>
+        <v>18.168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>333.32</v>
+        <v>421.9</v>
       </c>
       <c r="D51" t="n">
-        <v>394.66</v>
+        <v>487.94</v>
       </c>
       <c r="E51" t="n">
-        <v>3.984</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>418.62</v>
+        <v>487.94</v>
       </c>
       <c r="D52" t="n">
-        <v>481.16</v>
+        <v>566.65</v>
       </c>
       <c r="E52" t="n">
-        <v>0.284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>481.16</v>
+        <v>368.22</v>
       </c>
       <c r="D53" t="n">
-        <v>572.39</v>
+        <v>423.76</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>4.004</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>371.02</v>
+        <v>566.65</v>
       </c>
       <c r="D54" t="n">
-        <v>440.82</v>
+        <v>647.09</v>
       </c>
       <c r="E54" t="n">
-        <v>4.748</v>
+        <v>27.096</v>
       </c>
     </row>
     <row r="55">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>394.66</v>
+        <v>423.76</v>
       </c>
       <c r="D55" t="n">
-        <v>488.19</v>
+        <v>487.75</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1492,17 +1492,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>488.19</v>
+        <v>487.75</v>
       </c>
       <c r="D56" t="n">
-        <v>575.39</v>
+        <v>554.99</v>
       </c>
       <c r="E56" t="n">
-        <v>25.92</v>
+        <v>24.956</v>
       </c>
     </row>
     <row r="57">
@@ -1511,60 +1511,60 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>575.39</v>
+        <v>554.99</v>
       </c>
       <c r="D57" t="n">
-        <v>647.49</v>
+        <v>613.39</v>
       </c>
       <c r="E57" t="n">
-        <v>21.84</v>
+        <v>20.756</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>651.64</v>
+        <v>359.98</v>
       </c>
       <c r="D58" t="n">
-        <v>706.98</v>
+        <v>400.4</v>
       </c>
       <c r="E58" t="n">
-        <v>23.82</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>440.82</v>
+        <v>400.4</v>
       </c>
       <c r="D59" t="n">
-        <v>487.32</v>
+        <v>466.54</v>
       </c>
       <c r="E59" t="n">
-        <v>1.228</v>
+        <v>1.356</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>487.32</v>
+        <v>466.54</v>
       </c>
       <c r="D60" t="n">
-        <v>561.66</v>
+        <v>565.33</v>
       </c>
       <c r="E60" t="n">
         <v>30</v>
@@ -1587,17 +1587,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>647.49</v>
+        <v>613.39</v>
       </c>
       <c r="D61" t="n">
-        <v>708.03</v>
+        <v>686.23</v>
       </c>
       <c r="E61" t="n">
-        <v>18.876</v>
+        <v>16.612</v>
       </c>
     </row>
     <row r="62">
@@ -1606,55 +1606,55 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>648.1</v>
+        <v>565.33</v>
       </c>
       <c r="D62" t="n">
-        <v>709.74</v>
+        <v>645.03</v>
       </c>
       <c r="E62" t="n">
-        <v>21.264</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>659.91</v>
+        <v>572.5</v>
       </c>
       <c r="D63" t="n">
-        <v>701.23</v>
+        <v>625.54</v>
       </c>
       <c r="E63" t="n">
-        <v>18.908</v>
+        <v>23.516</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>572.39</v>
+        <v>625.54</v>
       </c>
       <c r="D64" t="n">
-        <v>632.37</v>
+        <v>689.72</v>
       </c>
       <c r="E64" t="n">
-        <v>26.192</v>
+        <v>20.708</v>
       </c>
     </row>
     <row r="65">
@@ -1663,131 +1663,131 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>701.23</v>
+        <v>691.45</v>
       </c>
       <c r="D65" t="n">
-        <v>767.15</v>
+        <v>750.13</v>
       </c>
       <c r="E65" t="n">
-        <v>14.956</v>
+        <v>20.512</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>561.66</v>
+        <v>686.23</v>
       </c>
       <c r="D66" t="n">
-        <v>626.6799999999999</v>
+        <v>736.73</v>
       </c>
       <c r="E66" t="n">
-        <v>27.168</v>
+        <v>12.692</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>709.74</v>
+        <v>736.73</v>
       </c>
       <c r="D67" t="n">
-        <v>783.62</v>
+        <v>781.25</v>
       </c>
       <c r="E67" t="n">
-        <v>18.456</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>632.37</v>
+        <v>645.03</v>
       </c>
       <c r="D68" t="n">
-        <v>732.97</v>
+        <v>701.91</v>
       </c>
       <c r="E68" t="n">
-        <v>22.712</v>
+        <v>23.112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>626.6799999999999</v>
+        <v>689.72</v>
       </c>
       <c r="D69" t="n">
-        <v>678.12</v>
+        <v>751.12</v>
       </c>
       <c r="E69" t="n">
-        <v>23.164</v>
+        <v>18.148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>706.98</v>
+        <v>750.13</v>
       </c>
       <c r="D70" t="n">
-        <v>750.22</v>
+        <v>790.09</v>
       </c>
       <c r="E70" t="n">
-        <v>21.116</v>
+        <v>17.656</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>767.15</v>
+        <v>701.91</v>
       </c>
       <c r="D71" t="n">
-        <v>843.25</v>
+        <v>787.53</v>
       </c>
       <c r="E71" t="n">
-        <v>10.936</v>
+        <v>20.12</v>
       </c>
     </row>
   </sheetData>
